--- a/biology/Histoire de la zoologie et de la botanique/George_Taylor_(botaniste)/George_Taylor_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Taylor_(botaniste)/George_Taylor_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Taylor, né le 15 février 1904 à Édimbourg et mort le 12 novembre 1993 à Dunbar, est un botaniste écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient sa maîtrise de botanique en 1926 à l'université d'Édimbourg. En 1928, il travaille comme assistant au département de botanique (Herbarium) du British Museum. Il travaille pendant toute la période de la Seconde Guerre mondiale dans des usines aéronautiques militaires. Il est directeur du jardin botanique de Kew Gardens de 1956 à 1971, succédant à Edward James Salisbury.
 Il effectue plusieurs expéditions botaniques en Afrique du Sud et en Rhodésie en 1927, 1928 et 1934. Il collecte par exemple avec d'autres botanistes des spécimens des genres Gladiolus, Ixia ou Kniphofia. Il dirige l'expédition de 1934-1935 en Afrique orientale pour le compte du British Museum. En 1938, il organise avec  George Sherriff (en) et Frank Ludlow une mission d'exploration botanique au Bhoutan et dans le sud du Tibet, où il étudie notamment des spécimens des genres Rhododendron, Primula, Gentiana ou Meconopsis.
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1962: il est titré « Knight Bachelor » (chevalier)
 1964: il est élu président du Xe Congrès international de botanique
@@ -580,7 +596,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>George Taylor, William Jackson Bean, Trees and shrubs hardy in the British Isles, 1914, 1988.
 George Taylor, An account of the genus Meconopsis, 1934, 1985
